--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_wt_pct_ML_mc_shared_relu.xlsx
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>193.7378692626953</v>
+        <v>199.2476501464844</v>
       </c>
       <c r="J2" t="n">
-        <v>58.77555847167969</v>
+        <v>62.80027389526367</v>
       </c>
       <c r="K2" t="n">
-        <v>162.3589935302734</v>
+        <v>115.7604446411133</v>
       </c>
       <c r="L2" t="n">
-        <v>88.44724273681641</v>
+        <v>95.83454132080078</v>
       </c>
     </row>
     <row r="3">
@@ -559,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>211.7023162841797</v>
+        <v>210.9520416259766</v>
       </c>
       <c r="J3" t="n">
-        <v>73.10546875</v>
+        <v>61.51137542724609</v>
       </c>
       <c r="K3" t="n">
-        <v>140.2925262451172</v>
+        <v>139.6695861816406</v>
       </c>
       <c r="L3" t="n">
-        <v>76.90060424804688</v>
+        <v>120.749397277832</v>
       </c>
     </row>
     <row r="4">
@@ -597,16 +597,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>185.4086761474609</v>
+        <v>221.2638549804688</v>
       </c>
       <c r="J4" t="n">
-        <v>80.68706512451172</v>
+        <v>56.43679428100586</v>
       </c>
       <c r="K4" t="n">
-        <v>178.4296112060547</v>
+        <v>185.2696533203125</v>
       </c>
       <c r="L4" t="n">
-        <v>106.4978332519531</v>
+        <v>150.14697265625</v>
       </c>
     </row>
     <row r="5">
@@ -635,16 +635,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>233.8551177978516</v>
+        <v>252.6298675537109</v>
       </c>
       <c r="J5" t="n">
-        <v>62.4772834777832</v>
+        <v>49.89020538330078</v>
       </c>
       <c r="K5" t="n">
-        <v>249.9811248779297</v>
+        <v>229.2145538330078</v>
       </c>
       <c r="L5" t="n">
-        <v>102.1341247558594</v>
+        <v>172.9250183105469</v>
       </c>
     </row>
     <row r="6">
@@ -673,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>267.5995788574219</v>
+        <v>282.8246765136719</v>
       </c>
       <c r="J6" t="n">
-        <v>70.35123443603516</v>
+        <v>45.29847717285156</v>
       </c>
       <c r="K6" t="n">
-        <v>271.6648864746094</v>
+        <v>244.15087890625</v>
       </c>
       <c r="L6" t="n">
-        <v>106.0745620727539</v>
+        <v>171.8982238769531</v>
       </c>
     </row>
     <row r="7">
@@ -711,16 +711,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>167.26611328125</v>
+        <v>209.7235412597656</v>
       </c>
       <c r="J7" t="n">
-        <v>45.31048202514648</v>
+        <v>58.82612609863281</v>
       </c>
       <c r="K7" t="n">
-        <v>273.8946838378906</v>
+        <v>289.9226684570312</v>
       </c>
       <c r="L7" t="n">
-        <v>92.38555145263672</v>
+        <v>73.10142517089844</v>
       </c>
     </row>
     <row r="8">
@@ -749,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>198.2748565673828</v>
+        <v>220.2905731201172</v>
       </c>
       <c r="J8" t="n">
-        <v>69.79776000976562</v>
+        <v>55.55354309082031</v>
       </c>
       <c r="K8" t="n">
-        <v>295.0892028808594</v>
+        <v>295.0930480957031</v>
       </c>
       <c r="L8" t="n">
-        <v>92.427978515625</v>
+        <v>92.53050231933594</v>
       </c>
     </row>
     <row r="9">
@@ -787,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>213.2076568603516</v>
+        <v>227.5531463623047</v>
       </c>
       <c r="J9" t="n">
-        <v>61.54623031616211</v>
+        <v>52.30132293701172</v>
       </c>
       <c r="K9" t="n">
-        <v>310.6394348144531</v>
+        <v>312.7154235839844</v>
       </c>
       <c r="L9" t="n">
-        <v>83.93772125244141</v>
+        <v>119.942138671875</v>
       </c>
     </row>
     <row r="10">
@@ -825,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>217.5136566162109</v>
+        <v>243.7293243408203</v>
       </c>
       <c r="J10" t="n">
-        <v>48.12087631225586</v>
+        <v>43.35883331298828</v>
       </c>
       <c r="K10" t="n">
-        <v>313.3011779785156</v>
+        <v>323.1785888671875</v>
       </c>
       <c r="L10" t="n">
-        <v>121.5801391601562</v>
+        <v>147.1082458496094</v>
       </c>
     </row>
     <row r="11">
@@ -863,16 +863,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>257.3019409179688</v>
+        <v>270.2154846191406</v>
       </c>
       <c r="J11" t="n">
-        <v>40.12961196899414</v>
+        <v>38.60044860839844</v>
       </c>
       <c r="K11" t="n">
-        <v>327.2212219238281</v>
+        <v>315.0046997070312</v>
       </c>
       <c r="L11" t="n">
-        <v>148.2854614257812</v>
+        <v>169.6149597167969</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>260.8423156738281</v>
+        <v>303.8770446777344</v>
       </c>
       <c r="J12" t="n">
-        <v>68.59685516357422</v>
+        <v>48.81311798095703</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3955078125</v>
+        <v>321.5005798339844</v>
       </c>
       <c r="L12" t="n">
-        <v>184.4899749755859</v>
+        <v>170.7592468261719</v>
       </c>
     </row>
     <row r="13">
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>343.5950927734375</v>
+        <v>358.1371765136719</v>
       </c>
       <c r="J13" t="n">
-        <v>88.94693756103516</v>
+        <v>87.41006469726562</v>
       </c>
       <c r="K13" t="n">
-        <v>303.74609375</v>
+        <v>334.6739196777344</v>
       </c>
       <c r="L13" t="n">
-        <v>197.4597015380859</v>
+        <v>179.9688262939453</v>
       </c>
     </row>
     <row r="14">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>188.8747100830078</v>
+        <v>225.5731506347656</v>
       </c>
       <c r="J14" t="n">
-        <v>64.29331207275391</v>
+        <v>52.13552474975586</v>
       </c>
       <c r="K14" t="n">
-        <v>493.4288330078125</v>
+        <v>461.912353515625</v>
       </c>
       <c r="L14" t="n">
-        <v>84.60913848876953</v>
+        <v>105.4123077392578</v>
       </c>
     </row>
     <row r="15">
@@ -1015,16 +1015,16 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>209.8775634765625</v>
+        <v>237.6341094970703</v>
       </c>
       <c r="J15" t="n">
-        <v>72.38594055175781</v>
+        <v>48.60891342163086</v>
       </c>
       <c r="K15" t="n">
-        <v>486.472412109375</v>
+        <v>434.3527221679688</v>
       </c>
       <c r="L15" t="n">
-        <v>82.26565551757812</v>
+        <v>105.7939529418945</v>
       </c>
     </row>
     <row r="16">
@@ -1053,16 +1053,16 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>207.966064453125</v>
+        <v>248.0144805908203</v>
       </c>
       <c r="J16" t="n">
-        <v>86.14158630371094</v>
+        <v>44.52198028564453</v>
       </c>
       <c r="K16" t="n">
-        <v>422.4686584472656</v>
+        <v>415.3489990234375</v>
       </c>
       <c r="L16" t="n">
-        <v>74.37367248535156</v>
+        <v>101.6027984619141</v>
       </c>
     </row>
     <row r="17">
@@ -1091,16 +1091,16 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>211.5816040039062</v>
+        <v>256.6127624511719</v>
       </c>
       <c r="J17" t="n">
-        <v>66.48563385009766</v>
+        <v>39.8351936340332</v>
       </c>
       <c r="K17" t="n">
-        <v>426.2042236328125</v>
+        <v>408.0456848144531</v>
       </c>
       <c r="L17" t="n">
-        <v>88.36158752441406</v>
+        <v>121.5671081542969</v>
       </c>
     </row>
     <row r="18">
@@ -1129,16 +1129,16 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>245.612548828125</v>
+        <v>270.6711730957031</v>
       </c>
       <c r="J18" t="n">
-        <v>76.50496673583984</v>
+        <v>42.45573425292969</v>
       </c>
       <c r="K18" t="n">
-        <v>416.302978515625</v>
+        <v>396.5601196289062</v>
       </c>
       <c r="L18" t="n">
-        <v>168.734375</v>
+        <v>146.4175109863281</v>
       </c>
     </row>
     <row r="19">
@@ -1167,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>285.1688537597656</v>
+        <v>298.2789001464844</v>
       </c>
       <c r="J19" t="n">
-        <v>41.23466873168945</v>
+        <v>47.58139419555664</v>
       </c>
       <c r="K19" t="n">
-        <v>367.9764404296875</v>
+        <v>373.7463684082031</v>
       </c>
       <c r="L19" t="n">
-        <v>108.2136535644531</v>
+        <v>154.9988555908203</v>
       </c>
     </row>
     <row r="20">
@@ -1205,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>328.7926940917969</v>
+        <v>350.421630859375</v>
       </c>
       <c r="J20" t="n">
-        <v>51.95480346679688</v>
+        <v>73.86347961425781</v>
       </c>
       <c r="K20" t="n">
-        <v>303.8008117675781</v>
+        <v>377.6474304199219</v>
       </c>
       <c r="L20" t="n">
-        <v>160.8154754638672</v>
+        <v>162.5319213867188</v>
       </c>
     </row>
     <row r="21">
@@ -1243,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>406.326171875</v>
+        <v>422.4515380859375</v>
       </c>
       <c r="J21" t="n">
-        <v>104.836540222168</v>
+        <v>106.6068649291992</v>
       </c>
       <c r="K21" t="n">
-        <v>357.5713806152344</v>
+        <v>354.5481872558594</v>
       </c>
       <c r="L21" t="n">
-        <v>222.5731658935547</v>
+        <v>185.7793121337891</v>
       </c>
     </row>
     <row r="22">
@@ -1281,16 +1281,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>468.1344909667969</v>
+        <v>472.397705078125</v>
       </c>
       <c r="J22" t="n">
-        <v>104.7217407226562</v>
+        <v>117.6719741821289</v>
       </c>
       <c r="K22" t="n">
-        <v>273.8861389160156</v>
+        <v>339.1032104492188</v>
       </c>
       <c r="L22" t="n">
-        <v>220.8644256591797</v>
+        <v>197.1925964355469</v>
       </c>
     </row>
     <row r="23">
@@ -1319,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>222.0419921875</v>
+        <v>249.7398986816406</v>
       </c>
       <c r="J23" t="n">
-        <v>80.05492401123047</v>
+        <v>63.27264022827148</v>
       </c>
       <c r="K23" t="n">
-        <v>583.2218627929688</v>
+        <v>542.0867309570312</v>
       </c>
       <c r="L23" t="n">
-        <v>114.4057540893555</v>
+        <v>136.7256164550781</v>
       </c>
     </row>
     <row r="24">
@@ -1357,16 +1357,16 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>243.8006591796875</v>
+        <v>264.5570678710938</v>
       </c>
       <c r="J24" t="n">
-        <v>59.90700531005859</v>
+        <v>58.7479133605957</v>
       </c>
       <c r="K24" t="n">
-        <v>519.58935546875</v>
+        <v>524.1604614257812</v>
       </c>
       <c r="L24" t="n">
-        <v>115.6888198852539</v>
+        <v>137.2363128662109</v>
       </c>
     </row>
     <row r="25">
@@ -1395,16 +1395,16 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>254.2593841552734</v>
+        <v>276.0159606933594</v>
       </c>
       <c r="J25" t="n">
-        <v>69.17623138427734</v>
+        <v>61.69890213012695</v>
       </c>
       <c r="K25" t="n">
-        <v>536.2219848632812</v>
+        <v>480.887451171875</v>
       </c>
       <c r="L25" t="n">
-        <v>74.41087341308594</v>
+        <v>131.9477386474609</v>
       </c>
     </row>
     <row r="26">
@@ -1433,16 +1433,16 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>239.1416625976562</v>
+        <v>284.0234985351562</v>
       </c>
       <c r="J26" t="n">
-        <v>52.14723205566406</v>
+        <v>53.84348297119141</v>
       </c>
       <c r="K26" t="n">
-        <v>513.68701171875</v>
+        <v>455.8694152832031</v>
       </c>
       <c r="L26" t="n">
-        <v>136.1108245849609</v>
+        <v>137.3897552490234</v>
       </c>
     </row>
     <row r="27">
@@ -1471,16 +1471,16 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>280.8496704101562</v>
+        <v>310.7212524414062</v>
       </c>
       <c r="J27" t="n">
-        <v>53.72684097290039</v>
+        <v>60.27016067504883</v>
       </c>
       <c r="K27" t="n">
-        <v>428.2749328613281</v>
+        <v>423.7210998535156</v>
       </c>
       <c r="L27" t="n">
-        <v>138.8416595458984</v>
+        <v>127.2920913696289</v>
       </c>
     </row>
     <row r="28">
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>324.9635314941406</v>
+        <v>343.1400756835938</v>
       </c>
       <c r="J28" t="n">
-        <v>40.04780578613281</v>
+        <v>72.20684051513672</v>
       </c>
       <c r="K28" t="n">
-        <v>315.4313659667969</v>
+        <v>397.2641296386719</v>
       </c>
       <c r="L28" t="n">
-        <v>165.9018707275391</v>
+        <v>141.1160736083984</v>
       </c>
     </row>
     <row r="29">
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>376.3924255371094</v>
+        <v>419.0228271484375</v>
       </c>
       <c r="J29" t="n">
-        <v>80.28664398193359</v>
+        <v>97.94093322753906</v>
       </c>
       <c r="K29" t="n">
-        <v>255.2513275146484</v>
+        <v>375.4192504882812</v>
       </c>
       <c r="L29" t="n">
-        <v>181.0525360107422</v>
+        <v>162.3963317871094</v>
       </c>
     </row>
     <row r="30">
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>461.7516784667969</v>
+        <v>479.6278076171875</v>
       </c>
       <c r="J30" t="n">
-        <v>100.1571960449219</v>
+        <v>108.929931640625</v>
       </c>
       <c r="K30" t="n">
-        <v>265.5473937988281</v>
+        <v>349.8774719238281</v>
       </c>
       <c r="L30" t="n">
-        <v>222.6013336181641</v>
+        <v>193.3224182128906</v>
       </c>
     </row>
     <row r="31">
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>504.4736633300781</v>
+        <v>504.7488403320312</v>
       </c>
       <c r="J31" t="n">
-        <v>121.4340896606445</v>
+        <v>115.226448059082</v>
       </c>
       <c r="K31" t="n">
-        <v>312.6025390625</v>
+        <v>333.8184204101562</v>
       </c>
       <c r="L31" t="n">
-        <v>235.1713562011719</v>
+        <v>208.9962310791016</v>
       </c>
     </row>
     <row r="32">
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>235.9331512451172</v>
+        <v>270.7872314453125</v>
       </c>
       <c r="J32" t="n">
-        <v>64.70296478271484</v>
+        <v>85.58658599853516</v>
       </c>
       <c r="K32" t="n">
-        <v>597.481201171875</v>
+        <v>659.3992919921875</v>
       </c>
       <c r="L32" t="n">
-        <v>155.2515869140625</v>
+        <v>160.3845977783203</v>
       </c>
     </row>
     <row r="33">
@@ -1699,16 +1699,16 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>242.8222503662109</v>
+        <v>277.843505859375</v>
       </c>
       <c r="J33" t="n">
-        <v>59.78590393066406</v>
+        <v>80.98927307128906</v>
       </c>
       <c r="K33" t="n">
-        <v>651.5116577148438</v>
+        <v>642.7562255859375</v>
       </c>
       <c r="L33" t="n">
-        <v>137.1943359375</v>
+        <v>173.8452301025391</v>
       </c>
     </row>
     <row r="34">
@@ -1737,16 +1737,16 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>277.7605895996094</v>
+        <v>292.4160766601562</v>
       </c>
       <c r="J34" t="n">
-        <v>85.87129974365234</v>
+        <v>75.99168395996094</v>
       </c>
       <c r="K34" t="n">
-        <v>613.8836059570312</v>
+        <v>564.3521118164062</v>
       </c>
       <c r="L34" t="n">
-        <v>137.6288757324219</v>
+        <v>184.3072662353516</v>
       </c>
     </row>
     <row r="35">
@@ -1775,16 +1775,16 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>304.6790466308594</v>
+        <v>320.4398498535156</v>
       </c>
       <c r="J35" t="n">
-        <v>74.92057037353516</v>
+        <v>81.58998107910156</v>
       </c>
       <c r="K35" t="n">
-        <v>497.367431640625</v>
+        <v>501.5524597167969</v>
       </c>
       <c r="L35" t="n">
-        <v>175.9475250244141</v>
+        <v>181.1925964355469</v>
       </c>
     </row>
     <row r="36">
@@ -1813,16 +1813,16 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>386.1707763671875</v>
+        <v>380.6898803710938</v>
       </c>
       <c r="J36" t="n">
-        <v>72.27500915527344</v>
+        <v>89.52642059326172</v>
       </c>
       <c r="K36" t="n">
-        <v>383.4891052246094</v>
+        <v>474.8536987304688</v>
       </c>
       <c r="L36" t="n">
-        <v>166.9690856933594</v>
+        <v>178.2207641601562</v>
       </c>
     </row>
     <row r="37">
@@ -1851,16 +1851,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>402.8358459472656</v>
+        <v>422.7279052734375</v>
       </c>
       <c r="J37" t="n">
-        <v>94.68582153320312</v>
+        <v>96.43744659423828</v>
       </c>
       <c r="K37" t="n">
-        <v>321.0602722167969</v>
+        <v>396.6455078125</v>
       </c>
       <c r="L37" t="n">
-        <v>227.8255615234375</v>
+        <v>166.7444763183594</v>
       </c>
     </row>
     <row r="38">
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>515.716796875</v>
+        <v>491.5399475097656</v>
       </c>
       <c r="J38" t="n">
-        <v>82.82708740234375</v>
+        <v>99.07256317138672</v>
       </c>
       <c r="K38" t="n">
-        <v>288.9369812011719</v>
+        <v>363.3193359375</v>
       </c>
       <c r="L38" t="n">
-        <v>205.1737518310547</v>
+        <v>186.5871429443359</v>
       </c>
     </row>
     <row r="39">
@@ -1927,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>472.4754638671875</v>
+        <v>500.8642272949219</v>
       </c>
       <c r="J39" t="n">
-        <v>119.2820281982422</v>
+        <v>103.8158493041992</v>
       </c>
       <c r="K39" t="n">
-        <v>328.7693176269531</v>
+        <v>327.6967163085938</v>
       </c>
       <c r="L39" t="n">
-        <v>308.3768920898438</v>
+        <v>203.6536560058594</v>
       </c>
     </row>
     <row r="40">
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>515.2301025390625</v>
+        <v>526.4345092773438</v>
       </c>
       <c r="J40" t="n">
-        <v>123.0535125732422</v>
+        <v>110.8068695068359</v>
       </c>
       <c r="K40" t="n">
-        <v>277.7293395996094</v>
+        <v>324.0137634277344</v>
       </c>
       <c r="L40" t="n">
-        <v>258.3334045410156</v>
+        <v>229.9286193847656</v>
       </c>
     </row>
     <row r="41">
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>273.2095642089844</v>
+        <v>282.4174194335938</v>
       </c>
       <c r="J41" t="n">
-        <v>108.6724243164062</v>
+        <v>100.2545013427734</v>
       </c>
       <c r="K41" t="n">
-        <v>736.3123168945312</v>
+        <v>751.0932006835938</v>
       </c>
       <c r="L41" t="n">
-        <v>146.2384338378906</v>
+        <v>138.1031188964844</v>
       </c>
     </row>
     <row r="42">
@@ -2041,16 +2041,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>265.1928405761719</v>
+        <v>292.5340270996094</v>
       </c>
       <c r="J42" t="n">
-        <v>65.42330932617188</v>
+        <v>87.18498992919922</v>
       </c>
       <c r="K42" t="n">
-        <v>589.9144897460938</v>
+        <v>670.7356567382812</v>
       </c>
       <c r="L42" t="n">
-        <v>170.4577941894531</v>
+        <v>178.9579315185547</v>
       </c>
     </row>
     <row r="43">
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>304.1041259765625</v>
+        <v>311.5337524414062</v>
       </c>
       <c r="J43" t="n">
-        <v>102.1791076660156</v>
+        <v>95.50075531005859</v>
       </c>
       <c r="K43" t="n">
-        <v>610.5068969726562</v>
+        <v>587.3125610351562</v>
       </c>
       <c r="L43" t="n">
-        <v>215.3844604492188</v>
+        <v>196.8282318115234</v>
       </c>
     </row>
     <row r="44">
@@ -2117,16 +2117,16 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>338.4861145019531</v>
+        <v>356.7483215332031</v>
       </c>
       <c r="J44" t="n">
-        <v>126.0308685302734</v>
+        <v>104.7401275634766</v>
       </c>
       <c r="K44" t="n">
-        <v>464.322998046875</v>
+        <v>494.6904602050781</v>
       </c>
       <c r="L44" t="n">
-        <v>204.8334350585938</v>
+        <v>186.6770324707031</v>
       </c>
     </row>
     <row r="45">
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>512.216064453125</v>
+        <v>428.2454528808594</v>
       </c>
       <c r="J45" t="n">
-        <v>110.0044860839844</v>
+        <v>108.6139144897461</v>
       </c>
       <c r="K45" t="n">
-        <v>394.7225341796875</v>
+        <v>449.1741638183594</v>
       </c>
       <c r="L45" t="n">
-        <v>206.8212432861328</v>
+        <v>184.3281555175781</v>
       </c>
     </row>
     <row r="46">
@@ -2193,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>539.1004638671875</v>
+        <v>480.0758972167969</v>
       </c>
       <c r="J46" t="n">
-        <v>85.85553741455078</v>
+        <v>94.29665374755859</v>
       </c>
       <c r="K46" t="n">
-        <v>326.9981384277344</v>
+        <v>364.9389953613281</v>
       </c>
       <c r="L46" t="n">
-        <v>178.8805541992188</v>
+        <v>187.5250091552734</v>
       </c>
     </row>
     <row r="47">
@@ -2231,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>549.3621215820312</v>
+        <v>509.5888671875</v>
       </c>
       <c r="J47" t="n">
-        <v>97.91635894775391</v>
+        <v>93.35150909423828</v>
       </c>
       <c r="K47" t="n">
-        <v>299.420654296875</v>
+        <v>329.6218872070312</v>
       </c>
       <c r="L47" t="n">
-        <v>268.6783752441406</v>
+        <v>196.3801879882812</v>
       </c>
     </row>
     <row r="48">
@@ -2269,16 +2269,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>528.9146118164062</v>
+        <v>518.1326293945312</v>
       </c>
       <c r="J48" t="n">
-        <v>121.76416015625</v>
+        <v>103.7245559692383</v>
       </c>
       <c r="K48" t="n">
-        <v>395.8421630859375</v>
+        <v>310.0734252929688</v>
       </c>
       <c r="L48" t="n">
-        <v>277.774169921875</v>
+        <v>216.5485534667969</v>
       </c>
     </row>
     <row r="49">
@@ -2307,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>555.3023681640625</v>
+        <v>524.7354736328125</v>
       </c>
       <c r="J49" t="n">
-        <v>101.8029022216797</v>
+        <v>114.7808532714844</v>
       </c>
       <c r="K49" t="n">
-        <v>279.4737854003906</v>
+        <v>307.515869140625</v>
       </c>
       <c r="L49" t="n">
-        <v>216.3711395263672</v>
+        <v>239.2155609130859</v>
       </c>
     </row>
     <row r="50">
@@ -2345,16 +2345,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>227.2845001220703</v>
+        <v>281.5273742675781</v>
       </c>
       <c r="J50" t="n">
-        <v>63.68452453613281</v>
+        <v>94.75137329101562</v>
       </c>
       <c r="K50" t="n">
-        <v>774.4100952148438</v>
+        <v>768.5639038085938</v>
       </c>
       <c r="L50" t="n">
-        <v>141.6180267333984</v>
+        <v>135.3454132080078</v>
       </c>
     </row>
     <row r="51">
@@ -2383,16 +2383,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>290.9304809570312</v>
+        <v>292.9277648925781</v>
       </c>
       <c r="J51" t="n">
-        <v>105.0009994506836</v>
+        <v>84.51698303222656</v>
       </c>
       <c r="K51" t="n">
-        <v>658.0880737304688</v>
+        <v>662.9203491210938</v>
       </c>
       <c r="L51" t="n">
-        <v>124.0969085693359</v>
+        <v>183.4977722167969</v>
       </c>
     </row>
     <row r="52">
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>275.3154296875</v>
+        <v>313.3082580566406</v>
       </c>
       <c r="J52" t="n">
-        <v>63.05733871459961</v>
+        <v>87.69615173339844</v>
       </c>
       <c r="K52" t="n">
-        <v>603.2462768554688</v>
+        <v>524.6629028320312</v>
       </c>
       <c r="L52" t="n">
-        <v>249.3601226806641</v>
+        <v>202.9013671875</v>
       </c>
     </row>
     <row r="53">
@@ -2459,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>396.6886901855469</v>
+        <v>377.5274353027344</v>
       </c>
       <c r="J53" t="n">
-        <v>115.1961669921875</v>
+        <v>107.6176071166992</v>
       </c>
       <c r="K53" t="n">
-        <v>440.3983459472656</v>
+        <v>450.6752624511719</v>
       </c>
       <c r="L53" t="n">
-        <v>236.1264190673828</v>
+        <v>208.9770355224609</v>
       </c>
     </row>
     <row r="54">
@@ -2497,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>511.6993408203125</v>
+        <v>433.3026428222656</v>
       </c>
       <c r="J54" t="n">
-        <v>108.0565414428711</v>
+        <v>113.9793014526367</v>
       </c>
       <c r="K54" t="n">
-        <v>354.8125</v>
+        <v>387.7671203613281</v>
       </c>
       <c r="L54" t="n">
-        <v>179.1041870117188</v>
+        <v>206.5784606933594</v>
       </c>
     </row>
     <row r="55">
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>494.0030822753906</v>
+        <v>483.6207275390625</v>
       </c>
       <c r="J55" t="n">
-        <v>102.7655563354492</v>
+        <v>103.8212585449219</v>
       </c>
       <c r="K55" t="n">
-        <v>256.470947265625</v>
+        <v>334.3932800292969</v>
       </c>
       <c r="L55" t="n">
-        <v>219.6439971923828</v>
+        <v>207.7977294921875</v>
       </c>
     </row>
     <row r="56">
@@ -2573,16 +2573,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>526.0697021484375</v>
+        <v>508.9979553222656</v>
       </c>
       <c r="J56" t="n">
-        <v>118.4801025390625</v>
+        <v>93.27196502685547</v>
       </c>
       <c r="K56" t="n">
-        <v>333.6519470214844</v>
+        <v>298.0467529296875</v>
       </c>
       <c r="L56" t="n">
-        <v>275.4088439941406</v>
+        <v>215.1343994140625</v>
       </c>
     </row>
     <row r="57">
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>591.4046020507812</v>
+        <v>517.779296875</v>
       </c>
       <c r="J57" t="n">
-        <v>48.15623092651367</v>
+        <v>106.2790985107422</v>
       </c>
       <c r="K57" t="n">
-        <v>288.6135559082031</v>
+        <v>294.9624328613281</v>
       </c>
       <c r="L57" t="n">
-        <v>250.2088928222656</v>
+        <v>242.6398773193359</v>
       </c>
     </row>
     <row r="58">
@@ -2649,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>558.9572143554688</v>
+        <v>523.11962890625</v>
       </c>
       <c r="J58" t="n">
-        <v>119.7220916748047</v>
+        <v>118.4096221923828</v>
       </c>
       <c r="K58" t="n">
-        <v>367.2804870605469</v>
+        <v>297.4359741210938</v>
       </c>
       <c r="L58" t="n">
-        <v>364.6873168945312</v>
+        <v>243.7568054199219</v>
       </c>
     </row>
     <row r="59">
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>284.1443786621094</v>
+        <v>297.4382934570312</v>
       </c>
       <c r="J59" t="n">
-        <v>81.91004943847656</v>
+        <v>80.17745971679688</v>
       </c>
       <c r="K59" t="n">
-        <v>566.9979858398438</v>
+        <v>575.1091918945312</v>
       </c>
       <c r="L59" t="n">
-        <v>204.5792236328125</v>
+        <v>223.7406463623047</v>
       </c>
     </row>
     <row r="60">
@@ -2725,16 +2725,16 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>334.1630554199219</v>
+        <v>321.6716613769531</v>
       </c>
       <c r="J60" t="n">
-        <v>101.9212875366211</v>
+        <v>84.50057220458984</v>
       </c>
       <c r="K60" t="n">
-        <v>477.8187255859375</v>
+        <v>435.6341552734375</v>
       </c>
       <c r="L60" t="n">
-        <v>151.5503234863281</v>
+        <v>231.6549224853516</v>
       </c>
     </row>
     <row r="61">
@@ -2763,16 +2763,16 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>386.0488586425781</v>
+        <v>361.2358093261719</v>
       </c>
       <c r="J61" t="n">
-        <v>95.06604766845703</v>
+        <v>100.9200439453125</v>
       </c>
       <c r="K61" t="n">
-        <v>353.3306884765625</v>
+        <v>317.5904235839844</v>
       </c>
       <c r="L61" t="n">
-        <v>273.60693359375</v>
+        <v>224.3330993652344</v>
       </c>
     </row>
     <row r="62">
@@ -2801,16 +2801,16 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>453.8411865234375</v>
+        <v>397.7716369628906</v>
       </c>
       <c r="J62" t="n">
-        <v>134.3223724365234</v>
+        <v>109.3343887329102</v>
       </c>
       <c r="K62" t="n">
-        <v>324.8915405273438</v>
+        <v>290.6134643554688</v>
       </c>
       <c r="L62" t="n">
-        <v>204.8883514404297</v>
+        <v>228.6425628662109</v>
       </c>
     </row>
     <row r="63">
@@ -2839,16 +2839,16 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>454.905029296875</v>
+        <v>456.2936401367188</v>
       </c>
       <c r="J63" t="n">
-        <v>96.74606323242188</v>
+        <v>113.0802459716797</v>
       </c>
       <c r="K63" t="n">
-        <v>301.4105224609375</v>
+        <v>275.5888366699219</v>
       </c>
       <c r="L63" t="n">
-        <v>341.4508361816406</v>
+        <v>210.7850646972656</v>
       </c>
     </row>
     <row r="64">
@@ -2877,16 +2877,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>559.3508911132812</v>
+        <v>492.307861328125</v>
       </c>
       <c r="J64" t="n">
-        <v>92.26291656494141</v>
+        <v>97.67568206787109</v>
       </c>
       <c r="K64" t="n">
-        <v>274.0983276367188</v>
+        <v>269.8543090820312</v>
       </c>
       <c r="L64" t="n">
-        <v>292.7996520996094</v>
+        <v>220.9130859375</v>
       </c>
     </row>
     <row r="65">
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>537.5593872070312</v>
+        <v>508.6003723144531</v>
       </c>
       <c r="J65" t="n">
-        <v>115.7727584838867</v>
+        <v>101.5475006103516</v>
       </c>
       <c r="K65" t="n">
-        <v>282.2721862792969</v>
+        <v>275.5309753417969</v>
       </c>
       <c r="L65" t="n">
-        <v>232.2692718505859</v>
+        <v>238.6046752929688</v>
       </c>
     </row>
     <row r="66">
@@ -2953,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>353.577392578125</v>
+        <v>329.0709228515625</v>
       </c>
       <c r="J66" t="n">
-        <v>71.82292938232422</v>
+        <v>90.80342864990234</v>
       </c>
       <c r="K66" t="n">
-        <v>346.6644287109375</v>
+        <v>318.4729309082031</v>
       </c>
       <c r="L66" t="n">
-        <v>279.3088989257812</v>
+        <v>242.8048400878906</v>
       </c>
     </row>
     <row r="67">
@@ -2991,16 +2991,16 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>401.6641540527344</v>
+        <v>341.9342041015625</v>
       </c>
       <c r="J67" t="n">
-        <v>84.77579498291016</v>
+        <v>93.07308959960938</v>
       </c>
       <c r="K67" t="n">
-        <v>270.5068054199219</v>
+        <v>226.2178192138672</v>
       </c>
       <c r="L67" t="n">
-        <v>253.7603302001953</v>
+        <v>221.9817199707031</v>
       </c>
     </row>
     <row r="68">
@@ -3029,16 +3029,16 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>475.3343505859375</v>
+        <v>366.5319213867188</v>
       </c>
       <c r="J68" t="n">
-        <v>119.8618316650391</v>
+        <v>100.3444213867188</v>
       </c>
       <c r="K68" t="n">
-        <v>362.0242004394531</v>
+        <v>194.0286560058594</v>
       </c>
       <c r="L68" t="n">
-        <v>311.0733947753906</v>
+        <v>217.8675231933594</v>
       </c>
     </row>
     <row r="69">
@@ -3067,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>430.4827880859375</v>
+        <v>399.8591003417969</v>
       </c>
       <c r="J69" t="n">
-        <v>112.3834762573242</v>
+        <v>108.2499465942383</v>
       </c>
       <c r="K69" t="n">
-        <v>213.6108856201172</v>
+        <v>184.318359375</v>
       </c>
       <c r="L69" t="n">
-        <v>329.9612121582031</v>
+        <v>210.8814544677734</v>
       </c>
     </row>
     <row r="70">
@@ -3105,16 +3105,16 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>494.1299743652344</v>
+        <v>434.3360595703125</v>
       </c>
       <c r="J70" t="n">
-        <v>119.2493743896484</v>
+        <v>110.1444778442383</v>
       </c>
       <c r="K70" t="n">
-        <v>191.6045379638672</v>
+        <v>203.0538482666016</v>
       </c>
       <c r="L70" t="n">
-        <v>266.2122802734375</v>
+        <v>219.7017059326172</v>
       </c>
     </row>
   </sheetData>
